--- a/data/raw/excel/VM_Market_Observation.xlsx
+++ b/data/raw/excel/VM_Market_Observation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c55ba288b6d60b4a/gvs-kyiv/data/raw/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{92D722E8-8CF9-4759-98B9-0EB7FAA92B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CD548D3-2443-43A1-B55A-38F33F99F631}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{92D722E8-8CF9-4759-98B9-0EB7FAA92B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAAA984-6D57-4FD1-932A-61D9EB8A0E91}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1190" windowWidth="20760" windowHeight="19690" xr2:uid="{4C2A3869-FCB5-4F9A-9132-EAD8F94A81E8}"/>
+    <workbookView xWindow="20350" yWindow="2850" windowWidth="18130" windowHeight="15370" xr2:uid="{4C2A3869-FCB5-4F9A-9132-EAD8F94A81E8}"/>
   </bookViews>
   <sheets>
     <sheet name="VM_Market_Observation" sheetId="1" r:id="rId1"/>
@@ -12764,14 +12764,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245D8213-3A47-415C-8ECE-913255BF0C58}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O164" sqref="A164:O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -12867,7 +12867,7 @@
         <v>normalized_url</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="195" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="195" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="156" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -13275,7 +13275,7 @@
       </c>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="234" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="234" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -13887,7 +13887,7 @@
       </c>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -13938,7 +13938,7 @@
       </c>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="1:18" ht="156" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -14091,7 +14091,7 @@
       </c>
       <c r="R25" s="9"/>
     </row>
-    <row r="26" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -14142,7 +14142,7 @@
       </c>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="R27" s="9"/>
     </row>
-    <row r="28" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="R28" s="9"/>
     </row>
-    <row r="29" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="R29" s="9"/>
     </row>
-    <row r="30" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -14346,7 +14346,7 @@
       </c>
       <c r="R30" s="9"/>
     </row>
-    <row r="31" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="R31" s="9"/>
     </row>
-    <row r="32" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="R33" s="9"/>
     </row>
-    <row r="34" spans="1:18" ht="156" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -14550,7 +14550,7 @@
       </c>
       <c r="R34" s="9"/>
     </row>
-    <row r="35" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="R35" s="9"/>
     </row>
-    <row r="36" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="R36" s="9"/>
     </row>
-    <row r="37" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -14754,7 +14754,7 @@
       </c>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="R39" s="9"/>
     </row>
-    <row r="40" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="R40" s="9"/>
     </row>
-    <row r="41" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="R41" s="9"/>
     </row>
-    <row r="42" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="R42" s="9"/>
     </row>
-    <row r="43" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="R43" s="9"/>
     </row>
-    <row r="44" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="R44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -15111,7 +15111,7 @@
       </c>
       <c r="R45" s="9"/>
     </row>
-    <row r="46" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -15162,7 +15162,7 @@
       </c>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:18" ht="221" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="221" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="R47" s="9"/>
     </row>
-    <row r="48" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -15264,7 +15264,7 @@
       </c>
       <c r="R48" s="9"/>
     </row>
-    <row r="49" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="R49" s="9"/>
     </row>
-    <row r="50" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -15366,7 +15366,7 @@
       </c>
       <c r="R50" s="9"/>
     </row>
-    <row r="51" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -15417,7 +15417,7 @@
       </c>
       <c r="R51" s="9"/>
     </row>
-    <row r="52" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="R52" s="9"/>
     </row>
-    <row r="53" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="R53" s="9"/>
     </row>
-    <row r="54" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -15570,7 +15570,7 @@
       </c>
       <c r="R54" s="9"/>
     </row>
-    <row r="55" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="R55" s="9"/>
     </row>
-    <row r="56" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="R56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="R57" s="9"/>
     </row>
-    <row r="58" spans="1:18" ht="156" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="R58" s="9"/>
     </row>
-    <row r="59" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="R59" s="9"/>
     </row>
-    <row r="60" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="R60" s="9"/>
     </row>
-    <row r="61" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="R61" s="9"/>
     </row>
-    <row r="62" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="R62" s="9"/>
     </row>
-    <row r="63" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="R63" s="9"/>
     </row>
-    <row r="64" spans="1:18" ht="325" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="325" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -16080,7 +16080,7 @@
       </c>
       <c r="R64" s="9"/>
     </row>
-    <row r="65" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -16131,7 +16131,7 @@
       </c>
       <c r="R65" s="9"/>
     </row>
-    <row r="66" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="R66" s="9"/>
     </row>
-    <row r="67" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="R67" s="9"/>
     </row>
-    <row r="68" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -16284,7 +16284,7 @@
       </c>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="R69" s="9"/>
     </row>
-    <row r="70" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -16386,7 +16386,7 @@
       </c>
       <c r="R70" s="9"/>
     </row>
-    <row r="71" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="R71" s="9"/>
     </row>
-    <row r="72" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -16488,7 +16488,7 @@
       </c>
       <c r="R72" s="9"/>
     </row>
-    <row r="73" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -16539,7 +16539,7 @@
       </c>
       <c r="R73" s="9"/>
     </row>
-    <row r="74" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="R74" s="9"/>
     </row>
-    <row r="75" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -16641,7 +16641,7 @@
       </c>
       <c r="R75" s="9"/>
     </row>
-    <row r="76" spans="1:18" ht="156" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="R76" s="9"/>
     </row>
-    <row r="77" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="R77" s="9"/>
     </row>
-    <row r="78" spans="1:18" ht="39" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="R78" s="9"/>
     </row>
-    <row r="79" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="R79" s="9"/>
     </row>
-    <row r="80" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -16896,7 +16896,7 @@
       </c>
       <c r="R80" s="9"/>
     </row>
-    <row r="81" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -16947,7 +16947,7 @@
       </c>
       <c r="R81" s="9"/>
     </row>
-    <row r="82" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -16998,7 +16998,7 @@
       </c>
       <c r="R82" s="9"/>
     </row>
-    <row r="83" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -17049,7 +17049,7 @@
       </c>
       <c r="R83" s="9"/>
     </row>
-    <row r="84" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -17100,7 +17100,7 @@
       </c>
       <c r="R84" s="9"/>
     </row>
-    <row r="85" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="R85" s="9"/>
     </row>
-    <row r="86" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -17202,7 +17202,7 @@
       </c>
       <c r="R86" s="9"/>
     </row>
-    <row r="87" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="R87" s="9"/>
     </row>
-    <row r="88" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -17304,7 +17304,7 @@
       </c>
       <c r="R88" s="9"/>
     </row>
-    <row r="89" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="R89" s="9"/>
     </row>
-    <row r="90" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -17406,7 +17406,7 @@
       </c>
       <c r="R90" s="9"/>
     </row>
-    <row r="91" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -17457,7 +17457,7 @@
       </c>
       <c r="R91" s="9"/>
     </row>
-    <row r="92" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -17508,7 +17508,7 @@
       </c>
       <c r="R92" s="9"/>
     </row>
-    <row r="93" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -17559,7 +17559,7 @@
       </c>
       <c r="R93" s="9"/>
     </row>
-    <row r="94" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -17610,7 +17610,7 @@
       </c>
       <c r="R94" s="9"/>
     </row>
-    <row r="95" spans="1:18" ht="234" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="234" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -17661,7 +17661,7 @@
       </c>
       <c r="R95" s="9"/>
     </row>
-    <row r="96" spans="1:18" ht="65" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="R96" s="9"/>
     </row>
-    <row r="97" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="R97" s="9"/>
     </row>
-    <row r="98" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="R98" s="9"/>
     </row>
-    <row r="99" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -17865,7 +17865,7 @@
       </c>
       <c r="R99" s="9"/>
     </row>
-    <row r="100" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="R100" s="9"/>
     </row>
-    <row r="101" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -17967,7 +17967,7 @@
       </c>
       <c r="R101" s="9"/>
     </row>
-    <row r="102" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -18018,7 +18018,7 @@
       </c>
       <c r="R102" s="9"/>
     </row>
-    <row r="103" spans="1:18" ht="117" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -18069,7 +18069,7 @@
       </c>
       <c r="R103" s="9"/>
     </row>
-    <row r="104" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="R104" s="9"/>
     </row>
-    <row r="105" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -18171,7 +18171,7 @@
       </c>
       <c r="R105" s="9"/>
     </row>
-    <row r="106" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -18222,7 +18222,7 @@
       </c>
       <c r="R106" s="9"/>
     </row>
-    <row r="107" spans="1:18" ht="208" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="208" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="R107" s="9"/>
     </row>
-    <row r="108" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -18324,7 +18324,7 @@
       </c>
       <c r="R108" s="9"/>
     </row>
-    <row r="109" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="R109" s="9"/>
     </row>
-    <row r="110" spans="1:18" ht="156" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
       <c r="R110" s="9"/>
     </row>
-    <row r="111" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="R111" s="9"/>
     </row>
-    <row r="112" spans="1:18" ht="234" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" ht="234" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -18528,7 +18528,7 @@
       </c>
       <c r="R112" s="9"/>
     </row>
-    <row r="113" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="R113" s="9"/>
     </row>
-    <row r="114" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -18630,7 +18630,7 @@
       </c>
       <c r="R114" s="9"/>
     </row>
-    <row r="115" spans="1:18" ht="247" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" ht="247" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="R115" s="9"/>
     </row>
-    <row r="116" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -18732,7 +18732,7 @@
       </c>
       <c r="R116" s="9"/>
     </row>
-    <row r="117" spans="1:18" ht="39" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="R117" s="9"/>
     </row>
-    <row r="118" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -18834,7 +18834,7 @@
       </c>
       <c r="R118" s="9"/>
     </row>
-    <row r="119" spans="1:18" ht="52" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -18885,7 +18885,7 @@
       </c>
       <c r="R119" s="9"/>
     </row>
-    <row r="120" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -18936,7 +18936,7 @@
       </c>
       <c r="R120" s="9"/>
     </row>
-    <row r="121" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -18987,7 +18987,7 @@
       </c>
       <c r="R121" s="9"/>
     </row>
-    <row r="122" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -19038,7 +19038,7 @@
       </c>
       <c r="R122" s="9"/>
     </row>
-    <row r="123" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -19089,7 +19089,7 @@
       </c>
       <c r="R123" s="9"/>
     </row>
-    <row r="124" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="R124" s="9"/>
     </row>
-    <row r="125" spans="1:18" ht="195" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="195" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="R125" s="9"/>
     </row>
-    <row r="126" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -19242,7 +19242,7 @@
       </c>
       <c r="R126" s="9"/>
     </row>
-    <row r="127" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -19293,7 +19293,7 @@
       </c>
       <c r="R127" s="9"/>
     </row>
-    <row r="128" spans="1:18" ht="208" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" ht="208" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="R128" s="9"/>
     </row>
-    <row r="129" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="R129" s="9"/>
     </row>
-    <row r="130" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="R130" s="9"/>
     </row>
-    <row r="131" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -19497,7 +19497,7 @@
       </c>
       <c r="R131" s="9"/>
     </row>
-    <row r="132" spans="1:18" ht="221" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" ht="221" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -19548,7 +19548,7 @@
       </c>
       <c r="R132" s="9"/>
     </row>
-    <row r="133" spans="1:18" ht="247" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="247" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -19599,7 +19599,7 @@
       </c>
       <c r="R133" s="9"/>
     </row>
-    <row r="134" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -19650,7 +19650,7 @@
       </c>
       <c r="R134" s="9"/>
     </row>
-    <row r="135" spans="1:18" ht="208" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" ht="208" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -19701,7 +19701,7 @@
       </c>
       <c r="R135" s="9"/>
     </row>
-    <row r="136" spans="1:18" ht="208" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" ht="208" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -19752,7 +19752,7 @@
       </c>
       <c r="R136" s="9"/>
     </row>
-    <row r="137" spans="1:18" ht="130" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="R137" s="9"/>
     </row>
-    <row r="138" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -19854,7 +19854,7 @@
       </c>
       <c r="R138" s="9"/>
     </row>
-    <row r="139" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -19905,7 +19905,7 @@
       </c>
       <c r="R139" s="9"/>
     </row>
-    <row r="140" spans="1:18" ht="143" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="R140" s="9"/>
     </row>
-    <row r="141" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -20007,7 +20007,7 @@
       </c>
       <c r="R141" s="9"/>
     </row>
-    <row r="142" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -20058,7 +20058,7 @@
       </c>
       <c r="R142" s="9"/>
     </row>
-    <row r="143" spans="1:18" ht="247" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="247" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -20109,7 +20109,7 @@
       </c>
       <c r="R143" s="9"/>
     </row>
-    <row r="144" spans="1:18" ht="195" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" ht="195" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="R144" s="9"/>
     </row>
-    <row r="145" spans="1:18" ht="91" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -20211,7 +20211,7 @@
       </c>
       <c r="R145" s="9"/>
     </row>
-    <row r="146" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="R147" s="9"/>
     </row>
-    <row r="148" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="R148" s="9"/>
     </row>
-    <row r="149" spans="1:18" ht="156" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -20415,7 +20415,7 @@
       </c>
       <c r="R149" s="9"/>
     </row>
-    <row r="150" spans="1:18" ht="338" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="338" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -20466,7 +20466,7 @@
       </c>
       <c r="R150" s="9"/>
     </row>
-    <row r="151" spans="1:18" ht="234" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" ht="234" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -20517,7 +20517,7 @@
       </c>
       <c r="R151" s="9"/>
     </row>
-    <row r="152" spans="1:18" ht="104" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="R152" s="9"/>
     </row>
-    <row r="153" spans="1:18" ht="169" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -20619,7 +20619,7 @@
       </c>
       <c r="R153" s="9"/>
     </row>
-    <row r="154" spans="1:18" ht="182" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="R154" s="9"/>
     </row>
-    <row r="155" spans="1:18" ht="78" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -20721,8 +20721,25 @@
       </c>
       <c r="R155" s="9"/>
     </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L167" s="1">
+        <v>63276000</v>
+      </c>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L168" s="1">
+        <f>L167/906</f>
+        <v>69841.059602649009</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R155" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R155" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="401 042"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
